--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dll4</t>
   </si>
   <si>
     <t>Notch3</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H2">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.49790693918736</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N2">
-        <v>3.49790693918736</v>
+        <v>11.65372</v>
       </c>
       <c r="O2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q2">
-        <v>107.1590091794462</v>
+        <v>124.5390339041911</v>
       </c>
       <c r="R2">
-        <v>107.1590091794462</v>
+        <v>1120.85130513772</v>
       </c>
       <c r="S2">
-        <v>0.08802624775124129</v>
+        <v>0.09376020498255105</v>
       </c>
       <c r="T2">
-        <v>0.08802624775124129</v>
+        <v>0.09376020498255105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H3">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.61940000434991</v>
+        <v>6.662909</v>
       </c>
       <c r="N3">
-        <v>6.61940000434991</v>
+        <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q3">
-        <v>202.7865115226166</v>
+        <v>213.6121984700696</v>
       </c>
       <c r="R3">
-        <v>202.7865115226166</v>
+        <v>1922.509786230627</v>
       </c>
       <c r="S3">
-        <v>0.1665798875949634</v>
+        <v>0.160819647362409</v>
       </c>
       <c r="T3">
-        <v>0.1665798875949634</v>
+        <v>0.160819647362409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H4">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.105794767457187</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N4">
-        <v>0.105794767457187</v>
+        <v>0.14758</v>
       </c>
       <c r="O4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q4">
-        <v>3.241041758451091</v>
+        <v>1.577133363731111</v>
       </c>
       <c r="R4">
-        <v>3.241041758451091</v>
+        <v>14.19420027358</v>
       </c>
       <c r="S4">
-        <v>0.002662368259898546</v>
+        <v>0.001187357431903708</v>
       </c>
       <c r="T4">
-        <v>0.002662368259898546</v>
+        <v>0.001187357431903708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,1053 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>32.05990033333333</v>
+      </c>
+      <c r="H5">
+        <v>96.17970099999999</v>
+      </c>
+      <c r="I5">
+        <v>0.992075962021671</v>
+      </c>
+      <c r="J5">
+        <v>0.992075962021671</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.106491</v>
+      </c>
+      <c r="N5">
+        <v>0.319473</v>
+      </c>
+      <c r="O5">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P5">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q5">
+        <v>3.414090846397</v>
+      </c>
+      <c r="R5">
+        <v>30.726817617573</v>
+      </c>
+      <c r="S5">
+        <v>0.002570325524072188</v>
+      </c>
+      <c r="T5">
+        <v>0.002570325524072188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>32.05990033333333</v>
+      </c>
+      <c r="H6">
+        <v>96.17970099999999</v>
+      </c>
+      <c r="I6">
+        <v>0.992075962021671</v>
+      </c>
+      <c r="J6">
+        <v>0.992075962021671</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>30.399472</v>
+      </c>
+      <c r="N6">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O6">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P6">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q6">
+        <v>974.6040425059574</v>
+      </c>
+      <c r="R6">
+        <v>8771.436382553617</v>
+      </c>
+      <c r="S6">
+        <v>0.733738426720735</v>
+      </c>
+      <c r="T6">
+        <v>0.7337384267207351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.455806</v>
+      </c>
+      <c r="I7">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J7">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N7">
+        <v>11.65372</v>
+      </c>
+      <c r="O7">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P7">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q7">
+        <v>0.5902039442577778</v>
+      </c>
+      <c r="R7">
+        <v>5.311835498320001</v>
+      </c>
+      <c r="S7">
+        <v>0.000444339746827417</v>
+      </c>
+      <c r="T7">
+        <v>0.0004443397468274171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.455806</v>
+      </c>
+      <c r="I8">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J8">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.662909</v>
+      </c>
+      <c r="N8">
+        <v>19.988727</v>
+      </c>
+      <c r="O8">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P8">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q8">
+        <v>1.012331299884667</v>
+      </c>
+      <c r="R8">
+        <v>9.110981698962002</v>
+      </c>
+      <c r="S8">
+        <v>0.0007621416933461894</v>
+      </c>
+      <c r="T8">
+        <v>0.0007621416933461896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>30.6351801355646</v>
-      </c>
-      <c r="H5">
-        <v>30.6351801355646</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>29.5139884018581</v>
-      </c>
-      <c r="N5">
-        <v>29.5139884018581</v>
-      </c>
-      <c r="O5">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="P5">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="Q5">
-        <v>904.1663512098872</v>
-      </c>
-      <c r="R5">
-        <v>904.1663512098872</v>
-      </c>
-      <c r="S5">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="T5">
-        <v>0.7427314963938968</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.455806</v>
+      </c>
+      <c r="I9">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J9">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.14758</v>
+      </c>
+      <c r="O9">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P9">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q9">
+        <v>0.007474205497777778</v>
+      </c>
+      <c r="R9">
+        <v>0.06726784948</v>
+      </c>
+      <c r="S9">
+        <v>5.627015222331598E-06</v>
+      </c>
+      <c r="T9">
+        <v>5.6270152223316E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.455806</v>
+      </c>
+      <c r="I10">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J10">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.106491</v>
+      </c>
+      <c r="N10">
+        <v>0.319473</v>
+      </c>
+      <c r="O10">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P10">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q10">
+        <v>0.016179745582</v>
+      </c>
+      <c r="R10">
+        <v>0.145617710238</v>
+      </c>
+      <c r="S10">
+        <v>1.218105050903878E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.218105050903878E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.455806</v>
+      </c>
+      <c r="I11">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J11">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.399472</v>
+      </c>
+      <c r="N11">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O11">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P11">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q11">
+        <v>4.618753911477334</v>
+      </c>
+      <c r="R11">
+        <v>41.56878520329601</v>
+      </c>
+      <c r="S11">
+        <v>0.003477265720860074</v>
+      </c>
+      <c r="T11">
+        <v>0.003477265720860075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.263879</v>
+      </c>
+      <c r="I12">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J12">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N12">
+        <v>11.65372</v>
+      </c>
+      <c r="O12">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P12">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q12">
+        <v>0.3416857755422222</v>
+      </c>
+      <c r="R12">
+        <v>3.075171979879999</v>
+      </c>
+      <c r="S12">
+        <v>0.0002572408613600347</v>
+      </c>
+      <c r="T12">
+        <v>0.0002572408613600347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.263879</v>
+      </c>
+      <c r="I13">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J13">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.662909</v>
+      </c>
+      <c r="N13">
+        <v>19.988727</v>
+      </c>
+      <c r="O13">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P13">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q13">
+        <v>0.5860672546703333</v>
+      </c>
+      <c r="R13">
+        <v>5.274605292033</v>
+      </c>
+      <c r="S13">
+        <v>0.0004412254070777899</v>
+      </c>
+      <c r="T13">
+        <v>0.0004412254070777899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.263879</v>
+      </c>
+      <c r="I14">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J14">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.14758</v>
+      </c>
+      <c r="O14">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P14">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q14">
+        <v>0.004327029202222222</v>
+      </c>
+      <c r="R14">
+        <v>0.03894326281999999</v>
+      </c>
+      <c r="S14">
+        <v>3.257638446737515E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.257638446737515E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.263879</v>
+      </c>
+      <c r="I15">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J15">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.106491</v>
+      </c>
+      <c r="N15">
+        <v>0.319473</v>
+      </c>
+      <c r="O15">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P15">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q15">
+        <v>0.009366912862999999</v>
+      </c>
+      <c r="R15">
+        <v>0.08430221576699999</v>
+      </c>
+      <c r="S15">
+        <v>7.051955058236713E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.051955058236715E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.263879</v>
+      </c>
+      <c r="I16">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J16">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.399472</v>
+      </c>
+      <c r="N16">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O16">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P16">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q16">
+        <v>2.673927423962667</v>
+      </c>
+      <c r="R16">
+        <v>24.065346815664</v>
+      </c>
+      <c r="S16">
+        <v>0.002013087588041481</v>
+      </c>
+      <c r="T16">
+        <v>0.002013087588041481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.016178</v>
+      </c>
+      <c r="H17">
+        <v>0.048534</v>
+      </c>
+      <c r="I17">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J17">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N17">
+        <v>11.65372</v>
+      </c>
+      <c r="O17">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P17">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q17">
+        <v>0.06284462738666667</v>
+      </c>
+      <c r="R17">
+        <v>0.56560164648</v>
+      </c>
+      <c r="S17">
+        <v>4.731307896895139E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.731307896895139E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.016178</v>
+      </c>
+      <c r="H18">
+        <v>0.048534</v>
+      </c>
+      <c r="I18">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J18">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.662909</v>
+      </c>
+      <c r="N18">
+        <v>19.988727</v>
+      </c>
+      <c r="O18">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P18">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q18">
+        <v>0.107792541802</v>
+      </c>
+      <c r="R18">
+        <v>0.970132876218</v>
+      </c>
+      <c r="S18">
+        <v>8.115247483548694E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.115247483548695E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.016178</v>
+      </c>
+      <c r="H19">
+        <v>0.048534</v>
+      </c>
+      <c r="I19">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J19">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.14758</v>
+      </c>
+      <c r="O19">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P19">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q19">
+        <v>0.0007958497466666667</v>
+      </c>
+      <c r="R19">
+        <v>0.007162647719999999</v>
+      </c>
+      <c r="S19">
+        <v>5.99161829376186E-07</v>
+      </c>
+      <c r="T19">
+        <v>5.99161829376186E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.016178</v>
+      </c>
+      <c r="H20">
+        <v>0.048534</v>
+      </c>
+      <c r="I20">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J20">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.106491</v>
+      </c>
+      <c r="N20">
+        <v>0.319473</v>
+      </c>
+      <c r="O20">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P20">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q20">
+        <v>0.001722811398</v>
+      </c>
+      <c r="R20">
+        <v>0.015505302582</v>
+      </c>
+      <c r="S20">
+        <v>1.297032301912849E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.297032301912849E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.016178</v>
+      </c>
+      <c r="H21">
+        <v>0.048534</v>
+      </c>
+      <c r="I21">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J21">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.399472</v>
+      </c>
+      <c r="N21">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O21">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P21">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q21">
+        <v>0.4918026580160001</v>
+      </c>
+      <c r="R21">
+        <v>4.426223922144001</v>
+      </c>
+      <c r="S21">
+        <v>0.0003702575536439249</v>
+      </c>
+      <c r="T21">
+        <v>0.000370257553643925</v>
       </c>
     </row>
   </sheetData>
